--- a/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2016.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/03-teckmarket-pull/funds-2016.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>201.6749634649</v>
+        <v>2016749.634649</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1753.2413908568</v>
+        <v>17532413.908568</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>278.6969152567</v>
+        <v>2786969.152567</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>172.7321430645</v>
+        <v>1727321.430645</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>792.5607188314</v>
+        <v>7925607.188314</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>68.7699784112</v>
+        <v>687699.784112</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>167.3802010254</v>
+        <v>1673802.010254</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>39.7635750453</v>
+        <v>397635.750453</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2885751022</v>
+        <v>1842885.751022</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>154.0512522262</v>
+        <v>1540512.522262</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>175.5113016726</v>
+        <v>1755113.016726</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>642.025805643</v>
+        <v>6420258.05643</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>102.0776103491</v>
+        <v>1020776.103491</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>93.1122658546</v>
+        <v>931122.658546</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>905.5930831488</v>
+        <v>9055930.831488</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>188.0987056124</v>
+        <v>1880987.056124</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>200.0312021073</v>
+        <v>2000312.021073</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>142.7117393379</v>
+        <v>1427117.393379</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>42.7186667888</v>
+        <v>427186.667888</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>79.2632275231</v>
+        <v>792632.275231</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>11406.9815696409</v>
+        <v>114069815.696409</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>505.2400989618</v>
+        <v>5052400.989618</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>234.0759685392</v>
+        <v>2340759.685392</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>359.0983943393</v>
+        <v>3590983.943393</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>431.9878069802</v>
+        <v>4319878.069802</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>331.7870926182</v>
+        <v>3317870.926182</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>389.1987454515</v>
+        <v>3891987.454515</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>19.5055235198</v>
+        <v>195055.235198</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>93.6110954954</v>
+        <v>936110.954954</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>171.4433941348</v>
+        <v>1714433.941348</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>288.3153819537</v>
+        <v>2883153.819537</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>524.8893065873</v>
+        <v>5248893.065873</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
